--- a/xlsx/自由_intext.xlsx
+++ b/xlsx/自由_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
   <si>
     <t>自由</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1_(%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E5%9C%8B%E6%AD%8C)</t>
   </si>
   <si>
-    <t>自由 (格魯吉亞國歌)</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_自由</t>
+    <t>自由 (格鲁吉亚国歌)</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%AF%E6%9E%81%E8%87%AA%E7%94%B1</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF%E8%87%AA%E7%94%B1</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>資訊自由</t>
+    <t>资讯自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%AA%E7%94%B1</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E8%87%AA%E7%94%B1</t>
@@ -125,31 +125,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>新聞自由</t>
+    <t>新闻自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>集會自由</t>
+    <t>集会自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>結社自由</t>
+    <t>结社自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A3%BD%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>和製漢語</t>
+    <t>和制汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%B3%95</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%96%A5</t>
   </si>
   <si>
-    <t>軍閥</t>
+    <t>军阀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%BB</t>
@@ -215,19 +215,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9</t>
   </si>
   <si>
-    <t>权利</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E9%9A%B1</t>
   </si>
   <si>
-    <t>私隱</t>
+    <t>私隐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%8F%96%E5%90%91</t>
@@ -263,25 +260,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>領土</t>
+    <t>领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>獨立</t>
+    <t>独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>性別意識</t>
+    <t>性别意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>性別</t>
+    <t>性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%BA%AB%E8%87%AA%E7%94%B1</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E4%B8%AD%E5%B1%B1</t>
   </si>
   <si>
-    <t>孫中山</t>
+    <t>孙中山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%96%AF%E5%9B%BE%E5%B0%94%E7%89%B9%C2%B7%E5%AF%86%E5%B0%94</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E6%96%BC%E6%81%90%E6%87%BC%E7%9A%84%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>免於恐懼的自由</t>
+    <t>免于恐惧的自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E4%B8%AD%E7%9A%84%E6%97%A5%E8%AA%9E%E5%80%9F%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢語中的日語借詞</t>
+    <t>汉语中的日语借词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E6%B1%89%E4%B9%A6</t>
@@ -437,9 +434,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>新闻自由</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E5%9B%BD%E7%95%8C%E8%AE%B0%E8%80%85</t>
   </si>
   <si>
@@ -461,19 +455,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%88%80%E6%84%9B</t>
   </si>
   <si>
-    <t>自由戀愛</t>
+    <t>自由恋爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>自由經濟</t>
+    <t>自由经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B0</t>
@@ -497,9 +491,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%9D%83%E5%88%A9%E5%92%8C%E6%94%BF%E6%B2%BB%E6%9D%83%E5%88%A9</t>
   </si>
   <si>
@@ -539,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%B0LGBT%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>各地LGBT權利</t>
+    <t>各地LGBT权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%B1%8D</t>
   </si>
   <si>
-    <t>國籍</t>
+    <t>国籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC</t>
@@ -563,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E6%AC%8A</t>
   </si>
   <si>
-    <t>庇護權</t>
+    <t>庇护权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD</t>
@@ -581,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E6%AC%8A</t>
   </si>
   <si>
-    <t>生命權</t>
+    <t>生命权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%B7%E6%B1%82%E6%9D%83</t>
@@ -605,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%8D%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>普遍選舉</t>
+    <t>普遍选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E3%80%81%E7%A4%BE%E4%BC%9A%E5%92%8C%E6%96%87%E5%8C%96%E6%9D%83%E5%88%A9</t>
@@ -617,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>數位權利</t>
+    <t>数位权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%B7%A5%E5%90%8C%E9%85%AC</t>
@@ -629,13 +620,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC</t>
   </si>
   <si>
-    <t>報酬</t>
+    <t>报酬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E7%94%9F%E6%B4%BB%E4%BF%9D%E9%9A%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>最低生活保障權</t>
+    <t>最低生活保障权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BF%E7%9D%80%E6%9D%83</t>
@@ -659,19 +650,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>財產權</t>
+    <t>财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9C%BE%E5%8F%83%E8%88%87</t>
   </si>
   <si>
-    <t>公眾參與</t>
+    <t>公众参与</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%AC%8A</t>
   </si>
   <si>
-    <t>水權</t>
+    <t>水权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BC%9A</t>
@@ -701,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E9%99%B0%E6%AE%98%E5%89%B2</t>
   </si>
   <si>
-    <t>女陰殘割</t>
+    <t>女阴残割</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%AE%96%E5%81%A5%E5%BA%B7</t>
@@ -737,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -755,13 +746,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -2066,7 +2057,7 @@
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2092,10 +2083,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2121,10 +2112,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2150,10 +2141,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2179,10 +2170,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -2208,10 +2199,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2237,10 +2228,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2266,10 +2257,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2295,10 +2286,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2324,10 +2315,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2353,10 +2344,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2382,10 +2373,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -2411,10 +2402,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2440,10 +2431,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2469,10 +2460,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2498,10 +2489,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2527,10 +2518,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2556,10 +2547,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>7</v>
@@ -2585,10 +2576,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2614,10 +2605,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2643,10 +2634,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2672,10 +2663,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2701,10 +2692,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2730,10 +2721,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2759,10 +2750,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2846,10 +2837,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2875,10 +2866,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2904,10 +2895,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2933,10 +2924,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2962,10 +2953,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3049,10 +3040,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
         <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3078,10 +3069,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
         <v>127</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3107,10 +3098,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3136,10 +3127,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
         <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>7</v>
@@ -3165,10 +3156,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
         <v>133</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -3252,10 +3243,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" t="s">
         <v>135</v>
-      </c>
-      <c r="F74" t="s">
-        <v>136</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3426,10 +3417,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" t="s">
         <v>137</v>
-      </c>
-      <c r="F80" t="s">
-        <v>138</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3455,10 +3446,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3484,10 +3475,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F82" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3513,10 +3504,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3542,10 +3533,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F84" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3571,10 +3562,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F85" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3600,10 +3591,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F86" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3629,10 +3620,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F87" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3658,10 +3649,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F88" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3687,10 +3678,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F89" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3716,10 +3707,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F90" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3745,10 +3736,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F91" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -3774,10 +3765,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3803,10 +3794,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F93" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3832,10 +3823,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F94" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3861,10 +3852,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F95" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3890,10 +3881,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F96" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3919,10 +3910,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F97" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3948,10 +3939,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F98" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3977,10 +3968,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F99" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4006,10 +3997,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F100" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4035,10 +4026,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F101" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4064,10 +4055,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F102" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4093,10 +4084,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F103" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4122,10 +4113,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F104" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4151,10 +4142,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F105" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4180,10 +4171,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F106" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4209,10 +4200,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F107" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4238,10 +4229,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F108" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4267,10 +4258,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F109" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4296,10 +4287,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F110" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4325,10 +4316,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F111" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4354,10 +4345,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F112" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4383,10 +4374,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F113" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4412,10 +4403,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F114" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4441,10 +4432,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F115" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4470,10 +4461,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F116" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4499,10 +4490,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F117" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4528,10 +4519,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F118" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4557,10 +4548,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F119" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4586,10 +4577,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F120" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4615,10 +4606,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F121" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4644,10 +4635,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F122" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4673,10 +4664,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F123" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4702,10 +4693,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F124" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4731,10 +4722,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F125" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4760,10 +4751,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4789,10 +4780,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F127" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4818,10 +4809,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F128" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4847,10 +4838,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F129" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4876,10 +4867,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F130" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4905,10 +4896,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F131" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4934,10 +4925,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F132" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -4963,10 +4954,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F133" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -4992,10 +4983,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F134" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5021,10 +5012,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F135" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5050,10 +5041,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F136" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5079,10 +5070,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F137" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
